--- a/excel_data/api_config.xlsx
+++ b/excel_data/api_config.xlsx
@@ -26,11 +26,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on</t>
+    <t>http://www.yitu8.net/actions/users.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.yitu8.net/actions/users.php</t>
+    <t>on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -403,10 +403,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
